--- a/data/all_resumes.xlsx
+++ b/data/all_resumes.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A.P.J. Abdul Kalam Technical University</t>
+          <t>PROFESSIONAL SUMMARY</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
